--- a/medicine/Enfance/Monster_High_(série_littéraire)/Monster_High_(série_littéraire).xlsx
+++ b/medicine/Enfance/Monster_High_(série_littéraire)/Monster_High_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monster_High_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Monster_High_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Monster High est une série de fantasy écrite par Lisi Harrison. La franchise Monster High a été déclinée également en dessins animés et poupées par la marque Mattel. Les livres sont traduits et édités en France aux éditions Castelmore[1] avec Paola Appelius.
+Monster High est une série de fantasy écrite par Lisi Harrison. La franchise Monster High a été déclinée également en dessins animés et poupées par la marque Mattel. Les livres sont traduits et édités en France aux éditions Castelmore avec Paola Appelius.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monster_High_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Monster_High_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tome 1 est basé sur la présentation des personnages, des lieux et Frankie en est l'héroïne. Ces aventures mènent à un surnom donnés par des élèves en colère MONSTER HIGH. Le Tome 2 est basé sur Cleo de Nile, sa maison, ses habitudes et sa façon de penser. Le Tome 3 est basé sur Clawdeen, son refuge, ses escapades nocturnes, et montre le début de l'histoire d'amour entre Clawd (le frère de Clawdeen) et Draculaura (sa meilleure amie). Le Tome 4 est basé sur la vie de Draculaura et sur un concours qui lui permettrait de gagner une estime qu'elle n'a jamais ressentie auprès de son père.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monster_High_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Monster_High_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série de livres était déjà, juste après sa sortie dans le top 5 des meilleures ventes du New-York Times[réf. nécessaire]. Le magazine Super l'a qualifié de « passionnant, glamour et très amusant, une lecture parfaite à dévorer ! »[réf. nécessaire].
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monster_High_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Monster_High_(série_littéraire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Monster High par Lisi Harrison
-Frankie Stein
+          <t>Série Monster High par Lisi Harrison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Frankie Stein
 Cleo de Nile
 Clawdeen Wolf
 Draculaura
@@ -604,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Monster_High_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Monster_High_(série_littéraire)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,6 +644,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Monster_High_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Monster_High_(série_littéraire)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +671,9 @@
           <t>Lieux utilisés dans le livre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Beverly Hills est mentionné en citant l'ancienne vie de Candace et Mélodie.
 Les Bahamas est l'endroit où est positionné le yacht du père de Draculaura.
